--- a/server/uploads/spreadsheets/sheet7.xlsx
+++ b/server/uploads/spreadsheets/sheet7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\Programming2022\headstarter-resume-parser-group-project\server\uploads\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C643C1AC-E73E-4E8C-80DB-8CD0B831AF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE88E2-0990-4463-9494-96D69FB3DE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9D0D873D-439D-4134-A068-44230CC8A39D}"/>
   </bookViews>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
     <t>skills</t>
   </si>
   <si>
@@ -55,16 +49,16 @@
     <t>contact</t>
   </si>
   <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Bugdall</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>fbugdall3@intel.com</t>
+    <t>Cedric Bixler-Zavala</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mars_volta@intel.com</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -100,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,52 +411,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2798ECDD-189B-4CE2-AC09-6246A6674628}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
